--- a/data-raw/send_columns.xlsx
+++ b/data-raw/send_columns.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FSDKHQ001\dep402$\000-4284\DATA MANAGEMENT\@Data Science\BioCelerate\sendigR\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\DATA MANAGEMENT\@Data Science\BioCelerate\sendigR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A1D87-B6D4-43B3-85F7-427F7B2887D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED628EA-1C01-40D7-B9FD-ED8BF1E3D664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25155" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="23925" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="send_columns" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">send_columns!$A$1:$F$920</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">send_columns!$A$1:$F$931</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4487" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="650">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -1970,6 +1970,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>SUPPQUAL</t>
   </si>
 </sst>
 </file>
@@ -2819,11 +2822,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F920"/>
+  <dimension ref="A1:F931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F159" sqref="F159:F920"/>
+      <pane ySplit="1" topLeftCell="A812" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,7 +2858,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4475,7 +4478,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4935,7 +4938,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>101</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>101</v>
       </c>
@@ -5115,7 +5118,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>101</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>101</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>101</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>101</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>101</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>136</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>136</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>136</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>136</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>136</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>8</v>
       </c>
       <c r="F151" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5915,7 +5918,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>146</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>146</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>146</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>146</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>164</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>164</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>164</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>164</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>173</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>173</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>173</v>
       </c>
@@ -6615,7 +6618,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>173</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>173</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>173</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>173</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>173</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>173</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>173</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>173</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>214</v>
       </c>
@@ -7455,7 +7458,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>214</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>214</v>
       </c>
@@ -7535,7 +7538,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>214</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>214</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>214</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>240</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>240</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>240</v>
       </c>
@@ -8115,7 +8118,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>240</v>
       </c>
@@ -8155,7 +8158,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>240</v>
       </c>
@@ -8175,7 +8178,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>240</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>240</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>240</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>240</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>240</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>240</v>
       </c>
@@ -8375,7 +8378,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>240</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>240</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>258</v>
       </c>
@@ -8475,7 +8478,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>258</v>
       </c>
@@ -8495,7 +8498,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>258</v>
       </c>
@@ -8535,7 +8538,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>258</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>258</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>258</v>
       </c>
@@ -8695,7 +8698,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>258</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>258</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>258</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>258</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>258</v>
       </c>
@@ -9335,7 +9338,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>258</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>258</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>309</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>309</v>
       </c>
@@ -9595,7 +9598,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -9635,7 +9638,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>309</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>309</v>
       </c>
@@ -9735,7 +9738,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>309</v>
       </c>
@@ -9775,7 +9778,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>309</v>
       </c>
@@ -9795,7 +9798,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>309</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>309</v>
       </c>
@@ -10115,7 +10118,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>334</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>334</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>334</v>
       </c>
@@ -10195,7 +10198,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>334</v>
       </c>
@@ -10275,7 +10278,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>334</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>334</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>334</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>334</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>8</v>
       </c>
       <c r="F378" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10695,7 +10698,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>334</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>362</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>362</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>362</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>362</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>362</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>362</v>
       </c>
@@ -10855,7 +10858,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>362</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>362</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>362</v>
       </c>
@@ -10915,7 +10918,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>362</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>362</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>362</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>386</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>386</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>386</v>
       </c>
@@ -11335,7 +11338,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>386</v>
       </c>
@@ -11415,7 +11418,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>386</v>
       </c>
@@ -11435,7 +11438,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>386</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>386</v>
       </c>
@@ -11515,7 +11518,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>386</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>386</v>
       </c>
@@ -11555,7 +11558,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>386</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>386</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>386</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>386</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>425</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>425</v>
       </c>
@@ -12155,7 +12158,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>425</v>
       </c>
@@ -12175,7 +12178,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>425</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>425</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>425</v>
       </c>
@@ -12275,7 +12278,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>425</v>
       </c>
@@ -12295,7 +12298,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>425</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>425</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>425</v>
       </c>
@@ -12355,7 +12358,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>425</v>
       </c>
@@ -12495,7 +12498,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>425</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>445</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>445</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>446</v>
       </c>
@@ -12655,7 +12658,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>446</v>
       </c>
@@ -12675,7 +12678,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>446</v>
       </c>
@@ -12715,7 +12718,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>446</v>
       </c>
@@ -12755,7 +12758,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>446</v>
       </c>
@@ -12775,7 +12778,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>446</v>
       </c>
@@ -12835,7 +12838,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>446</v>
       </c>
@@ -12855,7 +12858,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>446</v>
       </c>
@@ -12875,7 +12878,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>446</v>
       </c>
@@ -12895,7 +12898,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>446</v>
       </c>
@@ -12915,7 +12918,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>446</v>
       </c>
@@ -13075,7 +13078,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>446</v>
       </c>
@@ -13135,7 +13138,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>467</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>467</v>
       </c>
@@ -13175,7 +13178,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>467</v>
       </c>
@@ -13195,7 +13198,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>467</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>467</v>
       </c>
@@ -13275,7 +13278,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>467</v>
       </c>
@@ -13315,7 +13318,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>467</v>
       </c>
@@ -13335,7 +13338,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>467</v>
       </c>
@@ -13355,7 +13358,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>467</v>
       </c>
@@ -13375,7 +13378,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>467</v>
       </c>
@@ -13395,7 +13398,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>467</v>
       </c>
@@ -13595,7 +13598,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>467</v>
       </c>
@@ -13795,7 +13798,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>467</v>
       </c>
@@ -13875,7 +13878,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>502</v>
       </c>
@@ -13915,7 +13918,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>502</v>
       </c>
@@ -14035,7 +14038,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>505</v>
       </c>
@@ -14055,7 +14058,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>505</v>
       </c>
@@ -14075,7 +14078,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>505</v>
       </c>
@@ -14095,7 +14098,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>505</v>
       </c>
@@ -14135,7 +14138,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>505</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>505</v>
       </c>
@@ -14175,7 +14178,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>505</v>
       </c>
@@ -14195,7 +14198,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>505</v>
       </c>
@@ -14215,7 +14218,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>505</v>
       </c>
@@ -14235,7 +14238,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>505</v>
       </c>
@@ -14255,7 +14258,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>505</v>
       </c>
@@ -14275,7 +14278,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>505</v>
       </c>
@@ -14315,7 +14318,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>517</v>
       </c>
@@ -14335,7 +14338,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>517</v>
       </c>
@@ -14355,7 +14358,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>517</v>
       </c>
@@ -14375,7 +14378,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>517</v>
       </c>
@@ -14395,7 +14398,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>517</v>
       </c>
@@ -14435,7 +14438,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>517</v>
       </c>
@@ -14455,7 +14458,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>517</v>
       </c>
@@ -14495,9 +14498,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B584" t="s">
         <v>6</v>
@@ -14515,9 +14518,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B585" t="s">
         <v>87</v>
@@ -14535,9 +14538,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B586" t="s">
         <v>10</v>
@@ -14557,7 +14560,7 @@
     </row>
     <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B587" t="s">
         <v>54</v>
@@ -14575,9 +14578,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B588" t="s">
         <v>89</v>
@@ -14595,9 +14598,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B589" t="s">
         <v>90</v>
@@ -14615,9 +14618,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B590" t="s">
         <v>525</v>
@@ -14637,7 +14640,7 @@
     </row>
     <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B591" t="s">
         <v>526</v>
@@ -14655,9 +14658,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B592" t="s">
         <v>527</v>
@@ -14677,7 +14680,7 @@
     </row>
     <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B593" t="s">
         <v>528</v>
@@ -14697,7 +14700,7 @@
     </row>
     <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="B594" t="s">
         <v>529</v>
@@ -14715,15 +14718,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B595" t="s">
         <v>6</v>
       </c>
       <c r="C595" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D595" t="s">
         <v>7</v>
@@ -14735,15 +14738,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B596" t="s">
         <v>87</v>
       </c>
       <c r="C596" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D596" t="s">
         <v>7</v>
@@ -14755,15 +14758,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B597" t="s">
         <v>10</v>
       </c>
       <c r="C597" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D597" t="s">
         <v>7</v>
@@ -14777,13 +14780,13 @@
     </row>
     <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B598" t="s">
         <v>54</v>
       </c>
       <c r="C598" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D598" t="s">
         <v>7</v>
@@ -14795,15 +14798,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B599" t="s">
         <v>89</v>
       </c>
       <c r="C599" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D599" t="s">
         <v>7</v>
@@ -14815,15 +14818,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B600" t="s">
         <v>90</v>
       </c>
       <c r="C600" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D600" t="s">
         <v>7</v>
@@ -14835,15 +14838,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B601" t="s">
         <v>525</v>
       </c>
       <c r="C601" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D601" t="s">
         <v>7</v>
@@ -14857,13 +14860,13 @@
     </row>
     <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B602" t="s">
         <v>526</v>
       </c>
       <c r="C602" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D602" t="s">
         <v>7</v>
@@ -14875,15 +14878,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B603" t="s">
         <v>527</v>
       </c>
       <c r="C603" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D603" t="s">
         <v>7</v>
@@ -14897,13 +14900,13 @@
     </row>
     <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B604" t="s">
         <v>528</v>
       </c>
       <c r="C604" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D604" t="s">
         <v>7</v>
@@ -14917,13 +14920,13 @@
     </row>
     <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B605" t="s">
         <v>529</v>
       </c>
       <c r="C605" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D605" t="s">
         <v>7</v>
@@ -14935,15 +14938,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B606" t="s">
         <v>6</v>
       </c>
       <c r="C606" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D606" t="s">
         <v>7</v>
@@ -14955,15 +14958,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B607" t="s">
         <v>87</v>
       </c>
       <c r="C607" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D607" t="s">
         <v>7</v>
@@ -14975,15 +14978,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B608" t="s">
         <v>10</v>
       </c>
       <c r="C608" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D608" t="s">
         <v>7</v>
@@ -14997,13 +15000,13 @@
     </row>
     <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B609" t="s">
         <v>54</v>
       </c>
       <c r="C609" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D609" t="s">
         <v>7</v>
@@ -15015,15 +15018,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B610" t="s">
         <v>89</v>
       </c>
       <c r="C610" s="2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D610" t="s">
         <v>7</v>
@@ -15035,15 +15038,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B611" t="s">
         <v>90</v>
       </c>
       <c r="C611" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D611" t="s">
         <v>7</v>
@@ -15055,15 +15058,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B612" t="s">
         <v>525</v>
       </c>
       <c r="C612" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D612" t="s">
         <v>7</v>
@@ -15077,13 +15080,13 @@
     </row>
     <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B613" t="s">
         <v>526</v>
       </c>
       <c r="C613" s="2">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D613" t="s">
         <v>7</v>
@@ -15095,15 +15098,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B614" t="s">
         <v>527</v>
       </c>
       <c r="C614" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D614" t="s">
         <v>7</v>
@@ -15117,13 +15120,13 @@
     </row>
     <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B615" t="s">
         <v>528</v>
       </c>
       <c r="C615" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D615" t="s">
         <v>7</v>
@@ -15137,13 +15140,13 @@
     </row>
     <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B616" t="s">
         <v>529</v>
       </c>
       <c r="C616" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D616" t="s">
         <v>7</v>
@@ -15155,15 +15158,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B617" t="s">
         <v>6</v>
       </c>
       <c r="C617" s="2">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D617" t="s">
         <v>7</v>
@@ -15175,15 +15178,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B618" t="s">
         <v>87</v>
       </c>
       <c r="C618" s="2">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D618" t="s">
         <v>7</v>
@@ -15195,15 +15198,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B619" t="s">
         <v>10</v>
       </c>
       <c r="C619" s="2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D619" t="s">
         <v>7</v>
@@ -15217,13 +15220,13 @@
     </row>
     <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B620" t="s">
         <v>54</v>
       </c>
       <c r="C620" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D620" t="s">
         <v>7</v>
@@ -15235,15 +15238,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B621" t="s">
         <v>89</v>
       </c>
       <c r="C621" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D621" t="s">
         <v>7</v>
@@ -15255,15 +15258,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B622" t="s">
         <v>90</v>
       </c>
       <c r="C622" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D622" t="s">
         <v>7</v>
@@ -15275,15 +15278,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B623" t="s">
         <v>525</v>
       </c>
       <c r="C623" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D623" t="s">
         <v>7</v>
@@ -15297,13 +15300,13 @@
     </row>
     <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B624" t="s">
         <v>526</v>
       </c>
       <c r="C624" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D624" t="s">
         <v>7</v>
@@ -15315,15 +15318,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B625" t="s">
         <v>527</v>
       </c>
       <c r="C625" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D625" t="s">
         <v>7</v>
@@ -15337,13 +15340,13 @@
     </row>
     <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B626" t="s">
         <v>528</v>
       </c>
       <c r="C626" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D626" t="s">
         <v>7</v>
@@ -15357,13 +15360,13 @@
     </row>
     <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B627" t="s">
         <v>529</v>
       </c>
       <c r="C627" s="2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D627" t="s">
         <v>7</v>
@@ -15375,15 +15378,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B628" t="s">
         <v>6</v>
       </c>
       <c r="C628" s="2">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D628" t="s">
         <v>7</v>
@@ -15395,15 +15398,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B629" t="s">
         <v>87</v>
       </c>
       <c r="C629" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D629" t="s">
         <v>7</v>
@@ -15415,15 +15418,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B630" t="s">
         <v>10</v>
       </c>
       <c r="C630" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D630" t="s">
         <v>7</v>
@@ -15437,13 +15440,13 @@
     </row>
     <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B631" t="s">
         <v>54</v>
       </c>
       <c r="C631" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D631" t="s">
         <v>7</v>
@@ -15455,15 +15458,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B632" t="s">
         <v>89</v>
       </c>
       <c r="C632" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D632" t="s">
         <v>7</v>
@@ -15475,15 +15478,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B633" t="s">
         <v>90</v>
       </c>
       <c r="C633" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D633" t="s">
         <v>7</v>
@@ -15495,15 +15498,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B634" t="s">
         <v>525</v>
       </c>
       <c r="C634" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D634" t="s">
         <v>7</v>
@@ -15517,13 +15520,13 @@
     </row>
     <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B635" t="s">
         <v>526</v>
       </c>
       <c r="C635" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D635" t="s">
         <v>7</v>
@@ -15535,15 +15538,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B636" t="s">
         <v>527</v>
       </c>
       <c r="C636" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D636" t="s">
         <v>7</v>
@@ -15557,13 +15560,13 @@
     </row>
     <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B637" t="s">
         <v>528</v>
       </c>
       <c r="C637" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D637" t="s">
         <v>7</v>
@@ -15577,13 +15580,13 @@
     </row>
     <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B638" t="s">
         <v>529</v>
       </c>
       <c r="C638" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D638" t="s">
         <v>7</v>
@@ -15595,15 +15598,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B639" t="s">
         <v>6</v>
       </c>
       <c r="C639" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D639" t="s">
         <v>7</v>
@@ -15615,15 +15618,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B640" t="s">
         <v>87</v>
       </c>
       <c r="C640" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D640" t="s">
         <v>7</v>
@@ -15635,15 +15638,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B641" t="s">
         <v>10</v>
       </c>
       <c r="C641" s="2">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D641" t="s">
         <v>7</v>
@@ -15657,13 +15660,13 @@
     </row>
     <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B642" t="s">
         <v>54</v>
       </c>
       <c r="C642" s="2">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D642" t="s">
         <v>7</v>
@@ -15675,15 +15678,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B643" t="s">
         <v>89</v>
       </c>
       <c r="C643" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D643" t="s">
         <v>7</v>
@@ -15695,15 +15698,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B644" t="s">
         <v>90</v>
       </c>
       <c r="C644" s="2">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D644" t="s">
         <v>7</v>
@@ -15715,15 +15718,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B645" t="s">
         <v>525</v>
       </c>
       <c r="C645" s="2">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D645" t="s">
         <v>7</v>
@@ -15737,13 +15740,13 @@
     </row>
     <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B646" t="s">
         <v>526</v>
       </c>
       <c r="C646" s="2">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D646" t="s">
         <v>7</v>
@@ -15755,15 +15758,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B647" t="s">
         <v>527</v>
       </c>
       <c r="C647" s="2">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D647" t="s">
         <v>7</v>
@@ -15777,13 +15780,13 @@
     </row>
     <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B648" t="s">
         <v>528</v>
       </c>
       <c r="C648" s="2">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D648" t="s">
         <v>7</v>
@@ -15797,13 +15800,13 @@
     </row>
     <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B649" t="s">
         <v>529</v>
       </c>
       <c r="C649" s="2">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D649" t="s">
         <v>7</v>
@@ -15815,15 +15818,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B650" t="s">
         <v>6</v>
       </c>
       <c r="C650" s="2">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D650" t="s">
         <v>7</v>
@@ -15835,15 +15838,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B651" t="s">
         <v>87</v>
       </c>
       <c r="C651" s="2">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D651" t="s">
         <v>7</v>
@@ -15855,15 +15858,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B652" t="s">
         <v>10</v>
       </c>
       <c r="C652" s="2">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D652" t="s">
         <v>7</v>
@@ -15877,13 +15880,13 @@
     </row>
     <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B653" t="s">
         <v>54</v>
       </c>
       <c r="C653" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D653" t="s">
         <v>7</v>
@@ -15895,15 +15898,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B654" t="s">
         <v>89</v>
       </c>
       <c r="C654" s="2">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D654" t="s">
         <v>7</v>
@@ -15915,15 +15918,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B655" t="s">
         <v>90</v>
       </c>
       <c r="C655" s="2">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D655" t="s">
         <v>7</v>
@@ -15935,15 +15938,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B656" t="s">
         <v>525</v>
       </c>
       <c r="C656" s="2">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D656" t="s">
         <v>7</v>
@@ -15957,13 +15960,13 @@
     </row>
     <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B657" t="s">
         <v>526</v>
       </c>
       <c r="C657" s="2">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D657" t="s">
         <v>7</v>
@@ -15975,15 +15978,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B658" t="s">
         <v>527</v>
       </c>
       <c r="C658" s="2">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D658" t="s">
         <v>7</v>
@@ -15997,13 +16000,13 @@
     </row>
     <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B659" t="s">
         <v>528</v>
       </c>
       <c r="C659" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D659" t="s">
         <v>7</v>
@@ -16017,13 +16020,13 @@
     </row>
     <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B660" t="s">
         <v>529</v>
       </c>
       <c r="C660" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D660" t="s">
         <v>7</v>
@@ -16035,15 +16038,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B661" t="s">
         <v>6</v>
       </c>
       <c r="C661" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D661" t="s">
         <v>7</v>
@@ -16055,15 +16058,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B662" t="s">
         <v>87</v>
       </c>
       <c r="C662" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D662" t="s">
         <v>7</v>
@@ -16075,15 +16078,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B663" t="s">
         <v>10</v>
       </c>
       <c r="C663" s="2">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D663" t="s">
         <v>7</v>
@@ -16097,13 +16100,13 @@
     </row>
     <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B664" t="s">
         <v>54</v>
       </c>
       <c r="C664" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D664" t="s">
         <v>7</v>
@@ -16115,15 +16118,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B665" t="s">
         <v>89</v>
       </c>
       <c r="C665" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D665" t="s">
         <v>7</v>
@@ -16135,15 +16138,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B666" t="s">
         <v>90</v>
       </c>
       <c r="C666" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D666" t="s">
         <v>7</v>
@@ -16155,15 +16158,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B667" t="s">
         <v>525</v>
       </c>
       <c r="C667" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D667" t="s">
         <v>7</v>
@@ -16177,13 +16180,13 @@
     </row>
     <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B668" t="s">
         <v>526</v>
       </c>
       <c r="C668" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D668" t="s">
         <v>7</v>
@@ -16195,15 +16198,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B669" t="s">
         <v>527</v>
       </c>
       <c r="C669" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D669" t="s">
         <v>7</v>
@@ -16217,13 +16220,13 @@
     </row>
     <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B670" t="s">
         <v>528</v>
       </c>
       <c r="C670" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D670" t="s">
         <v>7</v>
@@ -16237,13 +16240,13 @@
     </row>
     <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B671" t="s">
         <v>529</v>
       </c>
       <c r="C671" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D671" t="s">
         <v>7</v>
@@ -16255,15 +16258,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B672" t="s">
         <v>6</v>
       </c>
       <c r="C672" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D672" t="s">
         <v>7</v>
@@ -16275,15 +16278,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B673" t="s">
         <v>87</v>
       </c>
       <c r="C673" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D673" t="s">
         <v>7</v>
@@ -16295,15 +16298,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B674" t="s">
         <v>10</v>
       </c>
       <c r="C674" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D674" t="s">
         <v>7</v>
@@ -16317,13 +16320,13 @@
     </row>
     <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B675" t="s">
         <v>54</v>
       </c>
       <c r="C675" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D675" t="s">
         <v>7</v>
@@ -16335,15 +16338,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B676" t="s">
         <v>89</v>
       </c>
       <c r="C676" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D676" t="s">
         <v>7</v>
@@ -16355,15 +16358,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B677" t="s">
         <v>90</v>
       </c>
       <c r="C677" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D677" t="s">
         <v>7</v>
@@ -16375,15 +16378,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B678" t="s">
         <v>525</v>
       </c>
       <c r="C678" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D678" t="s">
         <v>7</v>
@@ -16397,13 +16400,13 @@
     </row>
     <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B679" t="s">
         <v>526</v>
       </c>
       <c r="C679" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D679" t="s">
         <v>7</v>
@@ -16415,15 +16418,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B680" t="s">
         <v>527</v>
       </c>
       <c r="C680" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D680" t="s">
         <v>7</v>
@@ -16437,13 +16440,13 @@
     </row>
     <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B681" t="s">
         <v>528</v>
       </c>
       <c r="C681" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D681" t="s">
         <v>7</v>
@@ -16457,13 +16460,13 @@
     </row>
     <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B682" t="s">
         <v>529</v>
       </c>
       <c r="C682" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D682" t="s">
         <v>7</v>
@@ -16475,15 +16478,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B683" t="s">
         <v>6</v>
       </c>
       <c r="C683" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D683" t="s">
         <v>7</v>
@@ -16495,15 +16498,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B684" t="s">
         <v>87</v>
       </c>
       <c r="C684" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D684" t="s">
         <v>7</v>
@@ -16515,15 +16518,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B685" t="s">
         <v>10</v>
       </c>
       <c r="C685" s="2">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D685" t="s">
         <v>7</v>
@@ -16537,13 +16540,13 @@
     </row>
     <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B686" t="s">
         <v>54</v>
       </c>
       <c r="C686" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D686" t="s">
         <v>7</v>
@@ -16555,15 +16558,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B687" t="s">
         <v>89</v>
       </c>
       <c r="C687" s="2">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D687" t="s">
         <v>7</v>
@@ -16575,15 +16578,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B688" t="s">
         <v>90</v>
       </c>
       <c r="C688" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D688" t="s">
         <v>7</v>
@@ -16595,15 +16598,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B689" t="s">
         <v>525</v>
       </c>
       <c r="C689" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D689" t="s">
         <v>7</v>
@@ -16617,13 +16620,13 @@
     </row>
     <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B690" t="s">
         <v>526</v>
       </c>
       <c r="C690" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D690" t="s">
         <v>7</v>
@@ -16635,15 +16638,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B691" t="s">
         <v>527</v>
       </c>
       <c r="C691" s="2">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D691" t="s">
         <v>7</v>
@@ -16657,13 +16660,13 @@
     </row>
     <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B692" t="s">
         <v>528</v>
       </c>
       <c r="C692" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D692" t="s">
         <v>7</v>
@@ -16677,13 +16680,13 @@
     </row>
     <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B693" t="s">
         <v>529</v>
       </c>
       <c r="C693" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D693" t="s">
         <v>7</v>
@@ -16695,15 +16698,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B694" t="s">
         <v>6</v>
       </c>
       <c r="C694" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D694" t="s">
         <v>7</v>
@@ -16715,15 +16718,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B695" t="s">
         <v>87</v>
       </c>
       <c r="C695" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D695" t="s">
         <v>7</v>
@@ -16735,15 +16738,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B696" t="s">
         <v>10</v>
       </c>
       <c r="C696" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D696" t="s">
         <v>7</v>
@@ -16757,13 +16760,13 @@
     </row>
     <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B697" t="s">
         <v>54</v>
       </c>
       <c r="C697" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D697" t="s">
         <v>7</v>
@@ -16775,15 +16778,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B698" t="s">
         <v>89</v>
       </c>
       <c r="C698" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D698" t="s">
         <v>7</v>
@@ -16795,15 +16798,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B699" t="s">
         <v>90</v>
       </c>
       <c r="C699" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D699" t="s">
         <v>7</v>
@@ -16815,15 +16818,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B700" t="s">
         <v>525</v>
       </c>
       <c r="C700" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D700" t="s">
         <v>7</v>
@@ -16837,13 +16840,13 @@
     </row>
     <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B701" t="s">
         <v>526</v>
       </c>
       <c r="C701" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D701" t="s">
         <v>7</v>
@@ -16855,15 +16858,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B702" t="s">
         <v>527</v>
       </c>
       <c r="C702" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D702" t="s">
         <v>7</v>
@@ -16877,13 +16880,13 @@
     </row>
     <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B703" t="s">
         <v>528</v>
       </c>
       <c r="C703" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D703" t="s">
         <v>7</v>
@@ -16897,13 +16900,13 @@
     </row>
     <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B704" t="s">
         <v>529</v>
       </c>
       <c r="C704" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D704" t="s">
         <v>7</v>
@@ -16915,15 +16918,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B705" t="s">
         <v>6</v>
       </c>
       <c r="C705" s="2">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D705" t="s">
         <v>7</v>
@@ -16935,15 +16938,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B706" t="s">
         <v>87</v>
       </c>
       <c r="C706" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D706" t="s">
         <v>7</v>
@@ -16955,15 +16958,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B707" t="s">
         <v>10</v>
       </c>
       <c r="C707" s="2">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D707" t="s">
         <v>7</v>
@@ -16977,13 +16980,13 @@
     </row>
     <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B708" t="s">
         <v>54</v>
       </c>
       <c r="C708" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D708" t="s">
         <v>7</v>
@@ -16995,15 +16998,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B709" t="s">
         <v>89</v>
       </c>
       <c r="C709" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D709" t="s">
         <v>7</v>
@@ -17015,15 +17018,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B710" t="s">
         <v>90</v>
       </c>
       <c r="C710" s="2">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D710" t="s">
         <v>7</v>
@@ -17035,15 +17038,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B711" t="s">
         <v>525</v>
       </c>
       <c r="C711" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D711" t="s">
         <v>7</v>
@@ -17057,13 +17060,13 @@
     </row>
     <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B712" t="s">
         <v>526</v>
       </c>
       <c r="C712" s="2">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D712" t="s">
         <v>7</v>
@@ -17075,15 +17078,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B713" t="s">
         <v>527</v>
       </c>
       <c r="C713" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D713" t="s">
         <v>7</v>
@@ -17097,13 +17100,13 @@
     </row>
     <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B714" t="s">
         <v>528</v>
       </c>
       <c r="C714" s="2">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D714" t="s">
         <v>7</v>
@@ -17117,13 +17120,13 @@
     </row>
     <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B715" t="s">
         <v>529</v>
       </c>
       <c r="C715" s="2">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D715" t="s">
         <v>7</v>
@@ -17135,15 +17138,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B716" t="s">
         <v>6</v>
       </c>
       <c r="C716" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D716" t="s">
         <v>7</v>
@@ -17155,15 +17158,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B717" t="s">
         <v>87</v>
       </c>
       <c r="C717" s="2">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D717" t="s">
         <v>7</v>
@@ -17175,15 +17178,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B718" t="s">
         <v>10</v>
       </c>
       <c r="C718" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D718" t="s">
         <v>7</v>
@@ -17197,13 +17200,13 @@
     </row>
     <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B719" t="s">
         <v>54</v>
       </c>
       <c r="C719" s="2">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D719" t="s">
         <v>7</v>
@@ -17215,15 +17218,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B720" t="s">
         <v>89</v>
       </c>
       <c r="C720" s="2">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D720" t="s">
         <v>7</v>
@@ -17235,15 +17238,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B721" t="s">
         <v>90</v>
       </c>
       <c r="C721" s="2">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D721" t="s">
         <v>7</v>
@@ -17255,15 +17258,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B722" t="s">
         <v>525</v>
       </c>
       <c r="C722" s="2">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D722" t="s">
         <v>7</v>
@@ -17277,13 +17280,13 @@
     </row>
     <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B723" t="s">
         <v>526</v>
       </c>
       <c r="C723" s="2">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D723" t="s">
         <v>7</v>
@@ -17295,15 +17298,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B724" t="s">
         <v>527</v>
       </c>
       <c r="C724" s="2">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D724" t="s">
         <v>7</v>
@@ -17317,13 +17320,13 @@
     </row>
     <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B725" t="s">
         <v>528</v>
       </c>
       <c r="C725" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D725" t="s">
         <v>7</v>
@@ -17337,13 +17340,13 @@
     </row>
     <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B726" t="s">
         <v>529</v>
       </c>
       <c r="C726" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D726" t="s">
         <v>7</v>
@@ -17355,15 +17358,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B727" t="s">
         <v>6</v>
       </c>
       <c r="C727" s="2">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D727" t="s">
         <v>7</v>
@@ -17375,15 +17378,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B728" t="s">
         <v>87</v>
       </c>
       <c r="C728" s="2">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D728" t="s">
         <v>7</v>
@@ -17395,15 +17398,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B729" t="s">
         <v>10</v>
       </c>
       <c r="C729" s="2">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D729" t="s">
         <v>7</v>
@@ -17417,13 +17420,13 @@
     </row>
     <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B730" t="s">
         <v>54</v>
       </c>
       <c r="C730" s="2">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D730" t="s">
         <v>7</v>
@@ -17435,15 +17438,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B731" t="s">
         <v>89</v>
       </c>
       <c r="C731" s="2">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D731" t="s">
         <v>7</v>
@@ -17455,15 +17458,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B732" t="s">
         <v>90</v>
       </c>
       <c r="C732" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D732" t="s">
         <v>7</v>
@@ -17475,15 +17478,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B733" t="s">
         <v>525</v>
       </c>
       <c r="C733" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D733" t="s">
         <v>7</v>
@@ -17497,13 +17500,13 @@
     </row>
     <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B734" t="s">
         <v>526</v>
       </c>
       <c r="C734" s="2">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D734" t="s">
         <v>7</v>
@@ -17515,15 +17518,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B735" t="s">
         <v>527</v>
       </c>
       <c r="C735" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D735" t="s">
         <v>7</v>
@@ -17537,13 +17540,13 @@
     </row>
     <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B736" t="s">
         <v>528</v>
       </c>
       <c r="C736" s="2">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D736" t="s">
         <v>7</v>
@@ -17557,13 +17560,13 @@
     </row>
     <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B737" t="s">
         <v>529</v>
       </c>
       <c r="C737" s="2">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D737" t="s">
         <v>7</v>
@@ -17575,15 +17578,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B738" t="s">
         <v>6</v>
       </c>
       <c r="C738" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D738" t="s">
         <v>7</v>
@@ -17595,15 +17598,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B739" t="s">
         <v>87</v>
       </c>
       <c r="C739" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D739" t="s">
         <v>7</v>
@@ -17615,15 +17618,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B740" t="s">
         <v>10</v>
       </c>
       <c r="C740" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D740" t="s">
         <v>7</v>
@@ -17637,13 +17640,13 @@
     </row>
     <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B741" t="s">
         <v>54</v>
       </c>
       <c r="C741" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D741" t="s">
         <v>7</v>
@@ -17655,15 +17658,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B742" t="s">
         <v>89</v>
       </c>
       <c r="C742" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D742" t="s">
         <v>7</v>
@@ -17675,15 +17678,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B743" t="s">
         <v>90</v>
       </c>
       <c r="C743" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D743" t="s">
         <v>7</v>
@@ -17695,15 +17698,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B744" t="s">
         <v>525</v>
       </c>
       <c r="C744" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D744" t="s">
         <v>7</v>
@@ -17717,13 +17720,13 @@
     </row>
     <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B745" t="s">
         <v>526</v>
       </c>
       <c r="C745" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D745" t="s">
         <v>7</v>
@@ -17735,15 +17738,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B746" t="s">
         <v>527</v>
       </c>
       <c r="C746" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D746" t="s">
         <v>7</v>
@@ -17757,13 +17760,13 @@
     </row>
     <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B747" t="s">
         <v>528</v>
       </c>
       <c r="C747" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D747" t="s">
         <v>7</v>
@@ -17777,13 +17780,13 @@
     </row>
     <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B748" t="s">
         <v>529</v>
       </c>
       <c r="C748" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D748" t="s">
         <v>7</v>
@@ -17795,15 +17798,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B749" t="s">
         <v>6</v>
       </c>
       <c r="C749" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D749" t="s">
         <v>7</v>
@@ -17815,15 +17818,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B750" t="s">
         <v>87</v>
       </c>
       <c r="C750" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D750" t="s">
         <v>7</v>
@@ -17835,15 +17838,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B751" t="s">
         <v>10</v>
       </c>
       <c r="C751" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D751" t="s">
         <v>7</v>
@@ -17857,13 +17860,13 @@
     </row>
     <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B752" t="s">
         <v>54</v>
       </c>
       <c r="C752" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D752" t="s">
         <v>7</v>
@@ -17875,15 +17878,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B753" t="s">
         <v>89</v>
       </c>
       <c r="C753" s="2">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D753" t="s">
         <v>7</v>
@@ -17895,15 +17898,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B754" t="s">
         <v>90</v>
       </c>
       <c r="C754" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D754" t="s">
         <v>7</v>
@@ -17915,15 +17918,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B755" t="s">
         <v>525</v>
       </c>
       <c r="C755" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D755" t="s">
         <v>7</v>
@@ -17937,13 +17940,13 @@
     </row>
     <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B756" t="s">
         <v>526</v>
       </c>
       <c r="C756" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D756" t="s">
         <v>7</v>
@@ -17955,15 +17958,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B757" t="s">
         <v>527</v>
       </c>
       <c r="C757" s="2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D757" t="s">
         <v>7</v>
@@ -17977,13 +17980,13 @@
     </row>
     <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B758" t="s">
         <v>528</v>
       </c>
       <c r="C758" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D758" t="s">
         <v>7</v>
@@ -17997,13 +18000,13 @@
     </row>
     <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B759" t="s">
         <v>529</v>
       </c>
       <c r="C759" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D759" t="s">
         <v>7</v>
@@ -18015,15 +18018,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B760" t="s">
         <v>6</v>
       </c>
       <c r="C760" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D760" t="s">
         <v>7</v>
@@ -18035,15 +18038,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B761" t="s">
         <v>87</v>
       </c>
       <c r="C761" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D761" t="s">
         <v>7</v>
@@ -18055,15 +18058,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B762" t="s">
         <v>10</v>
       </c>
       <c r="C762" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D762" t="s">
         <v>7</v>
@@ -18077,13 +18080,13 @@
     </row>
     <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B763" t="s">
         <v>54</v>
       </c>
       <c r="C763" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D763" t="s">
         <v>7</v>
@@ -18095,15 +18098,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B764" t="s">
         <v>89</v>
       </c>
       <c r="C764" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D764" t="s">
         <v>7</v>
@@ -18115,15 +18118,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B765" t="s">
         <v>90</v>
       </c>
       <c r="C765" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D765" t="s">
         <v>7</v>
@@ -18135,15 +18138,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B766" t="s">
         <v>525</v>
       </c>
       <c r="C766" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D766" t="s">
         <v>7</v>
@@ -18157,13 +18160,13 @@
     </row>
     <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B767" t="s">
         <v>526</v>
       </c>
       <c r="C767" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D767" t="s">
         <v>7</v>
@@ -18175,15 +18178,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B768" t="s">
         <v>527</v>
       </c>
       <c r="C768" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D768" t="s">
         <v>7</v>
@@ -18197,13 +18200,13 @@
     </row>
     <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B769" t="s">
         <v>528</v>
       </c>
       <c r="C769" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D769" t="s">
         <v>7</v>
@@ -18217,13 +18220,13 @@
     </row>
     <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B770" t="s">
         <v>529</v>
       </c>
       <c r="C770" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D770" t="s">
         <v>7</v>
@@ -18235,15 +18238,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B771" t="s">
         <v>6</v>
       </c>
       <c r="C771" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D771" t="s">
         <v>7</v>
@@ -18255,15 +18258,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B772" t="s">
         <v>87</v>
       </c>
       <c r="C772" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D772" t="s">
         <v>7</v>
@@ -18275,15 +18278,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B773" t="s">
         <v>10</v>
       </c>
       <c r="C773" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D773" t="s">
         <v>7</v>
@@ -18297,13 +18300,13 @@
     </row>
     <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B774" t="s">
         <v>54</v>
       </c>
       <c r="C774" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D774" t="s">
         <v>7</v>
@@ -18315,15 +18318,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B775" t="s">
         <v>89</v>
       </c>
       <c r="C775" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D775" t="s">
         <v>7</v>
@@ -18335,15 +18338,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B776" t="s">
         <v>90</v>
       </c>
       <c r="C776" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D776" t="s">
         <v>7</v>
@@ -18355,15 +18358,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B777" t="s">
         <v>525</v>
       </c>
       <c r="C777" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D777" t="s">
         <v>7</v>
@@ -18377,13 +18380,13 @@
     </row>
     <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B778" t="s">
         <v>526</v>
       </c>
       <c r="C778" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D778" t="s">
         <v>7</v>
@@ -18395,15 +18398,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B779" t="s">
         <v>527</v>
       </c>
       <c r="C779" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D779" t="s">
         <v>7</v>
@@ -18417,13 +18420,13 @@
     </row>
     <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B780" t="s">
         <v>528</v>
       </c>
       <c r="C780" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D780" t="s">
         <v>7</v>
@@ -18437,13 +18440,13 @@
     </row>
     <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B781" t="s">
         <v>529</v>
       </c>
       <c r="C781" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D781" t="s">
         <v>7</v>
@@ -18455,15 +18458,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B782" t="s">
         <v>6</v>
       </c>
       <c r="C782" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D782" t="s">
         <v>7</v>
@@ -18475,15 +18478,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B783" t="s">
         <v>87</v>
       </c>
       <c r="C783" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D783" t="s">
         <v>7</v>
@@ -18495,15 +18498,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B784" t="s">
         <v>10</v>
       </c>
       <c r="C784" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D784" t="s">
         <v>7</v>
@@ -18517,13 +18520,13 @@
     </row>
     <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B785" t="s">
         <v>54</v>
       </c>
       <c r="C785" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D785" t="s">
         <v>7</v>
@@ -18535,15 +18538,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B786" t="s">
         <v>89</v>
       </c>
       <c r="C786" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D786" t="s">
         <v>7</v>
@@ -18555,15 +18558,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B787" t="s">
         <v>90</v>
       </c>
       <c r="C787" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D787" t="s">
         <v>7</v>
@@ -18575,15 +18578,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B788" t="s">
         <v>525</v>
       </c>
       <c r="C788" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D788" t="s">
         <v>7</v>
@@ -18597,13 +18600,13 @@
     </row>
     <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B789" t="s">
         <v>526</v>
       </c>
       <c r="C789" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D789" t="s">
         <v>7</v>
@@ -18615,15 +18618,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B790" t="s">
         <v>527</v>
       </c>
       <c r="C790" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D790" t="s">
         <v>7</v>
@@ -18637,13 +18640,13 @@
     </row>
     <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B791" t="s">
         <v>528</v>
       </c>
       <c r="C791" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D791" t="s">
         <v>7</v>
@@ -18657,13 +18660,13 @@
     </row>
     <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B792" t="s">
         <v>529</v>
       </c>
       <c r="C792" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D792" t="s">
         <v>7</v>
@@ -18675,15 +18678,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B793" t="s">
         <v>6</v>
       </c>
       <c r="C793" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D793" t="s">
         <v>7</v>
@@ -18695,15 +18698,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B794" t="s">
         <v>87</v>
       </c>
       <c r="C794" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D794" t="s">
         <v>7</v>
@@ -18715,15 +18718,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B795" t="s">
         <v>10</v>
       </c>
       <c r="C795" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D795" t="s">
         <v>7</v>
@@ -18737,13 +18740,13 @@
     </row>
     <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B796" t="s">
         <v>54</v>
       </c>
       <c r="C796" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D796" t="s">
         <v>7</v>
@@ -18755,15 +18758,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B797" t="s">
         <v>89</v>
       </c>
       <c r="C797" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D797" t="s">
         <v>7</v>
@@ -18775,15 +18778,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B798" t="s">
         <v>90</v>
       </c>
       <c r="C798" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D798" t="s">
         <v>7</v>
@@ -18795,15 +18798,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B799" t="s">
         <v>525</v>
       </c>
       <c r="C799" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D799" t="s">
         <v>7</v>
@@ -18817,13 +18820,13 @@
     </row>
     <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B800" t="s">
         <v>526</v>
       </c>
       <c r="C800" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D800" t="s">
         <v>7</v>
@@ -18835,15 +18838,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B801" t="s">
         <v>527</v>
       </c>
       <c r="C801" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D801" t="s">
         <v>7</v>
@@ -18857,13 +18860,13 @@
     </row>
     <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B802" t="s">
         <v>528</v>
       </c>
       <c r="C802" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D802" t="s">
         <v>7</v>
@@ -18877,13 +18880,13 @@
     </row>
     <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B803" t="s">
         <v>529</v>
       </c>
       <c r="C803" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D803" t="s">
         <v>7</v>
@@ -18895,15 +18898,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B804" t="s">
         <v>6</v>
       </c>
       <c r="C804" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D804" t="s">
         <v>7</v>
@@ -18915,15 +18918,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B805" t="s">
         <v>87</v>
       </c>
       <c r="C805" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D805" t="s">
         <v>7</v>
@@ -18935,15 +18938,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B806" t="s">
         <v>10</v>
       </c>
       <c r="C806" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D806" t="s">
         <v>7</v>
@@ -18957,13 +18960,13 @@
     </row>
     <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B807" t="s">
         <v>54</v>
       </c>
       <c r="C807" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D807" t="s">
         <v>7</v>
@@ -18975,15 +18978,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B808" t="s">
         <v>89</v>
       </c>
       <c r="C808" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D808" t="s">
         <v>7</v>
@@ -18995,15 +18998,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B809" t="s">
         <v>90</v>
       </c>
       <c r="C809" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D809" t="s">
         <v>7</v>
@@ -19015,15 +19018,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B810" t="s">
         <v>525</v>
       </c>
       <c r="C810" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D810" t="s">
         <v>7</v>
@@ -19037,13 +19040,13 @@
     </row>
     <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B811" t="s">
         <v>526</v>
       </c>
       <c r="C811" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D811" t="s">
         <v>7</v>
@@ -19055,15 +19058,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B812" t="s">
         <v>527</v>
       </c>
       <c r="C812" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D812" t="s">
         <v>7</v>
@@ -19077,13 +19080,13 @@
     </row>
     <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B813" t="s">
         <v>528</v>
       </c>
       <c r="C813" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D813" t="s">
         <v>7</v>
@@ -19097,13 +19100,13 @@
     </row>
     <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B814" t="s">
         <v>529</v>
       </c>
       <c r="C814" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D814" t="s">
         <v>7</v>
@@ -19115,15 +19118,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B815" t="s">
         <v>6</v>
       </c>
       <c r="C815" s="2">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="D815" t="s">
         <v>7</v>
@@ -19135,15 +19138,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B816" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C816" s="2">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="D816" t="s">
         <v>7</v>
@@ -19155,15 +19158,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B817" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="C817" s="2">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="D817" t="s">
         <v>7</v>
@@ -19177,13 +19180,13 @@
     </row>
     <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B818" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="C818" s="2">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="D818" t="s">
         <v>7</v>
@@ -19195,35 +19198,35 @@
         <v>648</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B819" t="s">
-        <v>551</v>
+        <v>89</v>
       </c>
       <c r="C819" s="2">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="D819" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E819" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F819" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B820" t="s">
-        <v>519</v>
+        <v>90</v>
       </c>
       <c r="C820" s="2">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="D820" t="s">
         <v>7</v>
@@ -19232,18 +19235,18 @@
         <v>8</v>
       </c>
       <c r="F820" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B821" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C821" s="2">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="D821" t="s">
         <v>7</v>
@@ -19252,18 +19255,18 @@
         <v>8</v>
       </c>
       <c r="F821" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B822" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="C822" s="2">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="D822" t="s">
         <v>7</v>
@@ -19275,15 +19278,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B823" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="C823" s="2">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D823" t="s">
         <v>7</v>
@@ -19292,18 +19295,18 @@
         <v>8</v>
       </c>
       <c r="F823" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B824" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="C824" s="2">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="D824" t="s">
         <v>7</v>
@@ -19312,79 +19315,79 @@
         <v>8</v>
       </c>
       <c r="F824" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B825" t="s">
+        <v>529</v>
+      </c>
+      <c r="C825" s="2">
+        <v>231</v>
+      </c>
+      <c r="D825" t="s">
+        <v>7</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F825" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>550</v>
+      </c>
+      <c r="B826" t="s">
         <v>6</v>
       </c>
-      <c r="C825" s="2">
+      <c r="C826" s="2">
         <v>1</v>
       </c>
-      <c r="D825" t="s">
-        <v>7</v>
-      </c>
-      <c r="E825" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F825" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
-        <v>555</v>
-      </c>
-      <c r="B826" t="s">
+      <c r="D826" t="s">
+        <v>7</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F826" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>550</v>
+      </c>
+      <c r="B827" t="s">
         <v>9</v>
       </c>
-      <c r="C826" s="2">
+      <c r="C827" s="2">
         <v>2</v>
       </c>
-      <c r="D826" t="s">
-        <v>7</v>
-      </c>
-      <c r="E826" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F826" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
-        <v>555</v>
-      </c>
-      <c r="B827" t="s">
-        <v>519</v>
-      </c>
-      <c r="C827" s="2">
+      <c r="D827" t="s">
+        <v>7</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F827" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>550</v>
+      </c>
+      <c r="B828" t="s">
+        <v>161</v>
+      </c>
+      <c r="C828" s="2">
         <v>3</v>
       </c>
-      <c r="D827" t="s">
-        <v>7</v>
-      </c>
-      <c r="E827" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F827" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
-        <v>555</v>
-      </c>
-      <c r="B828" t="s">
-        <v>520</v>
-      </c>
-      <c r="C828" s="2">
-        <v>4</v>
-      </c>
       <c r="D828" t="s">
         <v>7</v>
       </c>
@@ -19392,18 +19395,18 @@
         <v>8</v>
       </c>
       <c r="F828" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B829" t="s">
-        <v>556</v>
+        <v>162</v>
       </c>
       <c r="C829" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D829" t="s">
         <v>7</v>
@@ -19417,16 +19420,16 @@
     </row>
     <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B830" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C830" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D830" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E830" s="1" t="s">
         <v>8</v>
@@ -19437,13 +19440,13 @@
     </row>
     <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B831" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="C831" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D831" t="s">
         <v>7</v>
@@ -19457,13 +19460,13 @@
     </row>
     <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B832" t="s">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="C832" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D832" t="s">
         <v>7</v>
@@ -19472,18 +19475,18 @@
         <v>8</v>
       </c>
       <c r="F832" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B833" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
       <c r="C833" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D833" t="s">
         <v>7</v>
@@ -19492,41 +19495,41 @@
         <v>8</v>
       </c>
       <c r="F833" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B834" t="s">
+        <v>553</v>
+      </c>
+      <c r="C834" s="2">
+        <v>9</v>
+      </c>
+      <c r="D834" t="s">
+        <v>7</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F834" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>550</v>
+      </c>
+      <c r="B835" t="s">
+        <v>554</v>
+      </c>
+      <c r="C835" s="2">
         <v>10</v>
       </c>
-      <c r="C834" s="2">
-        <v>3</v>
-      </c>
-      <c r="D834" t="s">
-        <v>7</v>
-      </c>
-      <c r="E834" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F834" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A835" t="s">
-        <v>559</v>
-      </c>
-      <c r="B835" t="s">
-        <v>560</v>
-      </c>
-      <c r="C835" s="2">
-        <v>4</v>
-      </c>
       <c r="D835" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>8</v>
@@ -19535,15 +19538,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B836" t="s">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="C836" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D836" t="s">
         <v>7</v>
@@ -19552,18 +19555,18 @@
         <v>8</v>
       </c>
       <c r="F836" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B837" t="s">
-        <v>562</v>
+        <v>9</v>
       </c>
       <c r="C837" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D837" t="s">
         <v>7</v>
@@ -19572,18 +19575,18 @@
         <v>8</v>
       </c>
       <c r="F837" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B838" t="s">
-        <v>563</v>
+        <v>519</v>
       </c>
       <c r="C838" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D838" t="s">
         <v>7</v>
@@ -19597,13 +19600,13 @@
     </row>
     <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B839" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="C839" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D839" t="s">
         <v>7</v>
@@ -19612,18 +19615,18 @@
         <v>8</v>
       </c>
       <c r="F839" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B840" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C840" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D840" t="s">
         <v>7</v>
@@ -19632,18 +19635,18 @@
         <v>8</v>
       </c>
       <c r="F840" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B841" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C841" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D841" t="s">
         <v>7</v>
@@ -19652,18 +19655,18 @@
         <v>8</v>
       </c>
       <c r="F841" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B842" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C842" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D842" t="s">
         <v>7</v>
@@ -19672,58 +19675,58 @@
         <v>8</v>
       </c>
       <c r="F842" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>559</v>
       </c>
       <c r="B843" t="s">
-        <v>568</v>
+        <v>6</v>
       </c>
       <c r="C843" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D843" t="s">
         <v>7</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>635</v>
+        <v>8</v>
       </c>
       <c r="F843" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>559</v>
       </c>
       <c r="B844" t="s">
-        <v>569</v>
+        <v>9</v>
       </c>
       <c r="C844" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D844" t="s">
         <v>7</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>635</v>
+        <v>8</v>
       </c>
       <c r="F844" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>559</v>
       </c>
       <c r="B845" t="s">
-        <v>570</v>
+        <v>10</v>
       </c>
       <c r="C845" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D845" t="s">
         <v>7</v>
@@ -19735,24 +19738,24 @@
         <v>647</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>559</v>
       </c>
       <c r="B846" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C846" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D846" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E846" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F846" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19760,10 +19763,10 @@
         <v>559</v>
       </c>
       <c r="B847" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C847" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D847" t="s">
         <v>7</v>
@@ -19780,10 +19783,10 @@
         <v>559</v>
       </c>
       <c r="B848" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C848" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D848" t="s">
         <v>7</v>
@@ -19800,10 +19803,10 @@
         <v>559</v>
       </c>
       <c r="B849" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C849" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D849" t="s">
         <v>7</v>
@@ -19815,15 +19818,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>559</v>
       </c>
       <c r="B850" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C850" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D850" t="s">
         <v>7</v>
@@ -19832,18 +19835,18 @@
         <v>8</v>
       </c>
       <c r="F850" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>559</v>
       </c>
       <c r="B851" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C851" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D851" t="s">
         <v>7</v>
@@ -19852,18 +19855,18 @@
         <v>8</v>
       </c>
       <c r="F851" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>559</v>
       </c>
       <c r="B852" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C852" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D852" t="s">
         <v>7</v>
@@ -19872,18 +19875,18 @@
         <v>8</v>
       </c>
       <c r="F852" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>559</v>
       </c>
       <c r="B853" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C853" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D853" t="s">
         <v>7</v>
@@ -19892,7 +19895,7 @@
         <v>8</v>
       </c>
       <c r="F853" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19900,36 +19903,36 @@
         <v>559</v>
       </c>
       <c r="B854" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C854" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D854" t="s">
         <v>7</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>8</v>
+        <v>635</v>
       </c>
       <c r="F854" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>559</v>
       </c>
       <c r="B855" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C855" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D855" t="s">
         <v>7</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>8</v>
+        <v>635</v>
       </c>
       <c r="F855" t="s">
         <v>648</v>
@@ -19940,13 +19943,13 @@
         <v>559</v>
       </c>
       <c r="B856" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C856" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D856" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E856" s="1" t="s">
         <v>8</v>
@@ -19960,13 +19963,13 @@
         <v>559</v>
       </c>
       <c r="B857" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C857" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D857" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E857" s="1" t="s">
         <v>8</v>
@@ -19977,13 +19980,13 @@
     </row>
     <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B858" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="C858" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D858" t="s">
         <v>7</v>
@@ -19992,18 +19995,18 @@
         <v>8</v>
       </c>
       <c r="F858" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B859" t="s">
-        <v>9</v>
+        <v>573</v>
       </c>
       <c r="C859" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D859" t="s">
         <v>7</v>
@@ -20012,38 +20015,38 @@
         <v>8</v>
       </c>
       <c r="F859" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B860" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C860" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D860" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E860" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F860" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B861" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C861" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D861" t="s">
         <v>7</v>
@@ -20057,13 +20060,13 @@
     </row>
     <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B862" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C862" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D862" t="s">
         <v>7</v>
@@ -20072,18 +20075,18 @@
         <v>8</v>
       </c>
       <c r="F862" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B863" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C863" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D863" t="s">
         <v>7</v>
@@ -20097,13 +20100,13 @@
     </row>
     <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B864" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C864" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D864" t="s">
         <v>7</v>
@@ -20112,18 +20115,18 @@
         <v>8</v>
       </c>
       <c r="F864" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B865" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C865" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D865" t="s">
         <v>7</v>
@@ -20137,13 +20140,13 @@
     </row>
     <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B866" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C866" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D866" t="s">
         <v>7</v>
@@ -20157,16 +20160,16 @@
     </row>
     <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B867" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C867" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D867" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E867" s="1" t="s">
         <v>8</v>
@@ -20177,16 +20180,16 @@
     </row>
     <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B868" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C868" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D868" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E868" s="1" t="s">
         <v>8</v>
@@ -20195,15 +20198,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>583</v>
       </c>
       <c r="B869" t="s">
-        <v>593</v>
+        <v>6</v>
       </c>
       <c r="C869" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D869" t="s">
         <v>7</v>
@@ -20212,18 +20215,18 @@
         <v>8</v>
       </c>
       <c r="F869" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>583</v>
       </c>
       <c r="B870" t="s">
-        <v>641</v>
+        <v>9</v>
       </c>
       <c r="C870" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D870" t="s">
         <v>7</v>
@@ -20232,27 +20235,27 @@
         <v>8</v>
       </c>
       <c r="F870" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>583</v>
       </c>
       <c r="B871" t="s">
-        <v>642</v>
+        <v>584</v>
       </c>
       <c r="C871" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D871" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F871" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20260,10 +20263,10 @@
         <v>583</v>
       </c>
       <c r="B872" t="s">
-        <v>643</v>
+        <v>585</v>
       </c>
       <c r="C872" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D872" t="s">
         <v>7</v>
@@ -20275,15 +20278,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>583</v>
       </c>
       <c r="B873" t="s">
-        <v>644</v>
+        <v>586</v>
       </c>
       <c r="C873" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D873" t="s">
         <v>7</v>
@@ -20292,7 +20295,7 @@
         <v>8</v>
       </c>
       <c r="F873" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20300,10 +20303,10 @@
         <v>583</v>
       </c>
       <c r="B874" t="s">
-        <v>645</v>
+        <v>587</v>
       </c>
       <c r="C874" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D874" t="s">
         <v>7</v>
@@ -20315,35 +20318,35 @@
         <v>648</v>
       </c>
     </row>
-    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>583</v>
       </c>
       <c r="B875" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C875" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D875" t="s">
         <v>7</v>
       </c>
-      <c r="E875" s="1">
-        <v>3.1</v>
+      <c r="E875" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F875" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B876" t="s">
-        <v>6</v>
+        <v>589</v>
       </c>
       <c r="C876" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D876" t="s">
         <v>7</v>
@@ -20352,19 +20355,19 @@
         <v>8</v>
       </c>
       <c r="F876" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B877" t="s">
+        <v>590</v>
+      </c>
+      <c r="C877" s="2">
         <v>9</v>
       </c>
-      <c r="C877" s="2">
-        <v>2</v>
-      </c>
       <c r="D877" t="s">
         <v>7</v>
       </c>
@@ -20372,18 +20375,18 @@
         <v>8</v>
       </c>
       <c r="F877" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B878" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
       <c r="C878" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D878" t="s">
         <v>7</v>
@@ -20392,18 +20395,18 @@
         <v>8</v>
       </c>
       <c r="F878" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B879" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C879" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D879" t="s">
         <v>7</v>
@@ -20417,33 +20420,33 @@
     </row>
     <row r="880" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B880" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C880" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D880" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E880" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F880" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B881" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="C881" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D881" t="s">
         <v>7</v>
@@ -20452,18 +20455,18 @@
         <v>8</v>
       </c>
       <c r="F881" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B882" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="C882" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D882" t="s">
         <v>7</v>
@@ -20477,13 +20480,13 @@
     </row>
     <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B883" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="C883" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D883" t="s">
         <v>7</v>
@@ -20492,18 +20495,18 @@
         <v>8</v>
       </c>
       <c r="F883" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B884" t="s">
-        <v>6</v>
+        <v>644</v>
       </c>
       <c r="C884" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D884" t="s">
         <v>7</v>
@@ -20512,18 +20515,18 @@
         <v>8</v>
       </c>
       <c r="F884" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B885" t="s">
-        <v>9</v>
+        <v>645</v>
       </c>
       <c r="C885" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D885" t="s">
         <v>7</v>
@@ -20532,79 +20535,79 @@
         <v>8</v>
       </c>
       <c r="F885" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B886" t="s">
-        <v>10</v>
+        <v>594</v>
       </c>
       <c r="C886" s="2">
+        <v>30</v>
+      </c>
+      <c r="D886" t="s">
+        <v>7</v>
+      </c>
+      <c r="E886" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F886" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>595</v>
+      </c>
+      <c r="B887" t="s">
+        <v>6</v>
+      </c>
+      <c r="C887" s="2">
+        <v>1</v>
+      </c>
+      <c r="D887" t="s">
+        <v>7</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F887" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>595</v>
+      </c>
+      <c r="B888" t="s">
+        <v>9</v>
+      </c>
+      <c r="C888" s="2">
+        <v>2</v>
+      </c>
+      <c r="D888" t="s">
+        <v>7</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F888" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>595</v>
+      </c>
+      <c r="B889" t="s">
+        <v>163</v>
+      </c>
+      <c r="C889" s="2">
         <v>3</v>
       </c>
-      <c r="D886" t="s">
-        <v>7</v>
-      </c>
-      <c r="E886" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F886" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A887" t="s">
-        <v>601</v>
-      </c>
-      <c r="B887" t="s">
-        <v>602</v>
-      </c>
-      <c r="C887" s="2">
-        <v>4</v>
-      </c>
-      <c r="D887" t="s">
-        <v>12</v>
-      </c>
-      <c r="E887" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F887" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A888" t="s">
-        <v>601</v>
-      </c>
-      <c r="B888" t="s">
-        <v>603</v>
-      </c>
-      <c r="C888" s="2">
-        <v>5</v>
-      </c>
-      <c r="D888" t="s">
-        <v>7</v>
-      </c>
-      <c r="E888" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F888" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A889" t="s">
-        <v>601</v>
-      </c>
-      <c r="B889" t="s">
-        <v>604</v>
-      </c>
-      <c r="C889" s="2">
-        <v>6</v>
-      </c>
       <c r="D889" t="s">
         <v>7</v>
       </c>
@@ -20612,18 +20615,18 @@
         <v>8</v>
       </c>
       <c r="F889" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B890" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C890" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D890" t="s">
         <v>7</v>
@@ -20632,21 +20635,21 @@
         <v>8</v>
       </c>
       <c r="F890" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B891" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C891" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D891" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E891" s="1" t="s">
         <v>8</v>
@@ -20655,15 +20658,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B892" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C892" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D892" t="s">
         <v>7</v>
@@ -20672,18 +20675,18 @@
         <v>8</v>
       </c>
       <c r="F892" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B893" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C893" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D893" t="s">
         <v>7</v>
@@ -20695,15 +20698,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B894" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C894" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D894" t="s">
         <v>7</v>
@@ -20712,18 +20715,18 @@
         <v>8</v>
       </c>
       <c r="F894" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>601</v>
       </c>
       <c r="B895" t="s">
-        <v>610</v>
+        <v>6</v>
       </c>
       <c r="C895" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D895" t="s">
         <v>7</v>
@@ -20735,15 +20738,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>601</v>
       </c>
       <c r="B896" t="s">
-        <v>611</v>
+        <v>9</v>
       </c>
       <c r="C896" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D896" t="s">
         <v>7</v>
@@ -20755,15 +20758,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>601</v>
       </c>
       <c r="B897" t="s">
-        <v>612</v>
+        <v>10</v>
       </c>
       <c r="C897" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D897" t="s">
         <v>7</v>
@@ -20775,18 +20778,18 @@
         <v>647</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>601</v>
       </c>
       <c r="B898" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C898" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D898" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E898" s="1" t="s">
         <v>8</v>
@@ -20800,10 +20803,10 @@
         <v>601</v>
       </c>
       <c r="B899" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="C899" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D899" t="s">
         <v>7</v>
@@ -20812,7 +20815,7 @@
         <v>8</v>
       </c>
       <c r="F899" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20820,10 +20823,10 @@
         <v>601</v>
       </c>
       <c r="B900" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="C900" s="2">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D900" t="s">
         <v>7</v>
@@ -20835,15 +20838,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>601</v>
       </c>
       <c r="B901" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C901" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D901" t="s">
         <v>7</v>
@@ -20852,18 +20855,18 @@
         <v>8</v>
       </c>
       <c r="F901" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>601</v>
       </c>
       <c r="B902" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C902" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D902" t="s">
         <v>7</v>
@@ -20872,7 +20875,7 @@
         <v>8</v>
       </c>
       <c r="F902" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20880,10 +20883,10 @@
         <v>601</v>
       </c>
       <c r="B903" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C903" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D903" t="s">
         <v>7</v>
@@ -20900,10 +20903,10 @@
         <v>601</v>
       </c>
       <c r="B904" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C904" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D904" t="s">
         <v>7</v>
@@ -20920,10 +20923,10 @@
         <v>601</v>
       </c>
       <c r="B905" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="C905" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D905" t="s">
         <v>7</v>
@@ -20935,15 +20938,15 @@
         <v>648</v>
       </c>
     </row>
-    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>601</v>
       </c>
       <c r="B906" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C906" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D906" t="s">
         <v>7</v>
@@ -20952,18 +20955,18 @@
         <v>8</v>
       </c>
       <c r="F906" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>601</v>
       </c>
       <c r="B907" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C907" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D907" t="s">
         <v>7</v>
@@ -20972,47 +20975,47 @@
         <v>8</v>
       </c>
       <c r="F907" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>601</v>
       </c>
       <c r="B908" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C908" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D908" t="s">
         <v>7</v>
       </c>
-      <c r="E908" s="1">
-        <v>3.1</v>
+      <c r="E908" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F908" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>601</v>
       </c>
       <c r="B909" t="s">
-        <v>48</v>
+        <v>613</v>
       </c>
       <c r="C909" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D909" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F909" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
@@ -21020,10 +21023,10 @@
         <v>601</v>
       </c>
       <c r="B910" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C910" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D910" t="s">
         <v>7</v>
@@ -21032,7 +21035,7 @@
         <v>8</v>
       </c>
       <c r="F910" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -21040,10 +21043,10 @@
         <v>601</v>
       </c>
       <c r="B911" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C911" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D911" t="s">
         <v>7</v>
@@ -21060,13 +21063,13 @@
         <v>601</v>
       </c>
       <c r="B912" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C912" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D912" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E912" s="1" t="s">
         <v>8</v>
@@ -21080,13 +21083,13 @@
         <v>601</v>
       </c>
       <c r="B913" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C913" s="2">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D913" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E913" s="1" t="s">
         <v>8</v>
@@ -21100,16 +21103,16 @@
         <v>601</v>
       </c>
       <c r="B914" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C914" s="2">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D914" t="s">
-        <v>12</v>
-      </c>
-      <c r="E914" s="1">
-        <v>3.1</v>
+        <v>7</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F914" t="s">
         <v>648</v>
@@ -21120,16 +21123,16 @@
         <v>601</v>
       </c>
       <c r="B915" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C915" s="2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D915" t="s">
         <v>7</v>
       </c>
-      <c r="E915" s="1">
-        <v>3.1</v>
+      <c r="E915" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F915" t="s">
         <v>648</v>
@@ -21140,10 +21143,10 @@
         <v>601</v>
       </c>
       <c r="B916" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C916" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D916" t="s">
         <v>7</v>
@@ -21160,13 +21163,13 @@
         <v>601</v>
       </c>
       <c r="B917" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C917" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D917" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>8</v>
@@ -21180,10 +21183,10 @@
         <v>601</v>
       </c>
       <c r="B918" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C918" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D918" t="s">
         <v>7</v>
@@ -21200,94 +21203,263 @@
         <v>601</v>
       </c>
       <c r="B919" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C919" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D919" t="s">
         <v>7</v>
       </c>
-      <c r="E919" s="1" t="s">
-        <v>8</v>
+      <c r="E919" s="1">
+        <v>3.1</v>
       </c>
       <c r="F919" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>601</v>
       </c>
       <c r="B920" t="s">
+        <v>48</v>
+      </c>
+      <c r="C920" s="2">
+        <v>30</v>
+      </c>
+      <c r="D920" t="s">
+        <v>12</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F920" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>601</v>
+      </c>
+      <c r="B921" t="s">
+        <v>624</v>
+      </c>
+      <c r="C921" s="2">
+        <v>31</v>
+      </c>
+      <c r="D921" t="s">
+        <v>7</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F921" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>601</v>
+      </c>
+      <c r="B922" t="s">
+        <v>625</v>
+      </c>
+      <c r="C922" s="2">
+        <v>32</v>
+      </c>
+      <c r="D922" t="s">
+        <v>7</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F922" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>601</v>
+      </c>
+      <c r="B923" t="s">
+        <v>626</v>
+      </c>
+      <c r="C923" s="2">
+        <v>33</v>
+      </c>
+      <c r="D923" t="s">
+        <v>12</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F923" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>601</v>
+      </c>
+      <c r="B924" t="s">
+        <v>627</v>
+      </c>
+      <c r="C924" s="2">
+        <v>34</v>
+      </c>
+      <c r="D924" t="s">
+        <v>12</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F924" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>601</v>
+      </c>
+      <c r="B925" t="s">
+        <v>628</v>
+      </c>
+      <c r="C925" s="2">
+        <v>35</v>
+      </c>
+      <c r="D925" t="s">
+        <v>12</v>
+      </c>
+      <c r="E925" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F925" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>601</v>
+      </c>
+      <c r="B926" t="s">
+        <v>629</v>
+      </c>
+      <c r="C926" s="2">
+        <v>36</v>
+      </c>
+      <c r="D926" t="s">
+        <v>7</v>
+      </c>
+      <c r="E926" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F926" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>601</v>
+      </c>
+      <c r="B927" t="s">
+        <v>630</v>
+      </c>
+      <c r="C927" s="2">
+        <v>37</v>
+      </c>
+      <c r="D927" t="s">
+        <v>7</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F927" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>601</v>
+      </c>
+      <c r="B928" t="s">
+        <v>631</v>
+      </c>
+      <c r="C928" s="2">
+        <v>38</v>
+      </c>
+      <c r="D928" t="s">
+        <v>19</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F928" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>601</v>
+      </c>
+      <c r="B929" t="s">
+        <v>632</v>
+      </c>
+      <c r="C929" s="2">
+        <v>39</v>
+      </c>
+      <c r="D929" t="s">
+        <v>7</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F929" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>601</v>
+      </c>
+      <c r="B930" t="s">
+        <v>633</v>
+      </c>
+      <c r="C930" s="2">
+        <v>40</v>
+      </c>
+      <c r="D930" t="s">
+        <v>7</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F930" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>601</v>
+      </c>
+      <c r="B931" t="s">
         <v>634</v>
       </c>
-      <c r="C920" s="2">
+      <c r="C931" s="2">
         <v>41</v>
       </c>
-      <c r="D920" t="s">
-        <v>7</v>
-      </c>
-      <c r="E920" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F920" t="s">
+      <c r="D931" t="s">
+        <v>7</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F931" t="s">
         <v>648</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F920" xr:uid="{5D1E6676-D231-4B7C-BD87-6D46BA7F1ABA}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BGDTC"/>
-        <filter val="BGENDTC"/>
-        <filter val="BGRFTDTC"/>
-        <filter val="BRTHDTC"/>
-        <filter val="BWDTC"/>
-        <filter val="CLDTC"/>
-        <filter val="CLENDTC"/>
-        <filter val="CLRFTDTC"/>
-        <filter val="CODTC"/>
-        <filter val="CVDTC"/>
-        <filter val="CVENDTC"/>
-        <filter val="CVRFTDTC"/>
-        <filter val="DDDTC"/>
-        <filter val="DSSTDTC"/>
-        <filter val="EGDTC"/>
-        <filter val="EGENDTC"/>
-        <filter val="EGRFTDTC"/>
-        <filter val="EXENDTC"/>
-        <filter val="EXRFTDTC"/>
-        <filter val="EXSTDTC"/>
-        <filter val="FWDTC"/>
-        <filter val="FWENDTC"/>
-        <filter val="LBDTC"/>
-        <filter val="LBENDTC"/>
-        <filter val="LBRFTDTC"/>
-        <filter val="MADTC"/>
-        <filter val="MIDTC"/>
-        <filter val="OMDTC"/>
-        <filter val="PCDTC"/>
-        <filter val="PCENDTC"/>
-        <filter val="PCRFTDTC"/>
-        <filter val="PMDTC"/>
-        <filter val="PPRFTDTC"/>
-        <filter val="REDTC"/>
-        <filter val="REENDTC"/>
-        <filter val="RERFTDTC"/>
-        <filter val="RFENDTC"/>
-        <filter val="RFSTDTC"/>
-        <filter val="RFXENDTC"/>
-        <filter val="RFXSTDTC"/>
-        <filter val="SCDTC"/>
-        <filter val="SEENDTC"/>
-        <filter val="SESTDTC"/>
-        <filter val="TFDTC"/>
-        <filter val="VSDTC"/>
-        <filter val="VSENDTC"/>
-        <filter val="VSRFTDTC"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:F931" xr:uid="{5D1E6676-D231-4B7C-BD87-6D46BA7F1ABA}">
     <filterColumn colId="5">
       <filters>
         <filter val="Y"/>
